--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/APICasinoGamesCasinoImagesBrokenData/Pokies2goDataBrokenURLList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/APICasinoGamesCasinoImagesBrokenData/Pokies2goDataBrokenURLList.xlsx
@@ -12,564 +12,567 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t>1 130 ID=75340 Provider=Ganapati Name=American Kombat cod=0 description=null ResponseObject=24</t>
   </si>
   <si>
-    <t>2 195 ID=25549 Provider=Leander Name=AztecaGold cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>3 201 ID=75976 Provider=Yggdrasil Name=Baccarat cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>4 204 ID=75977 Provider=Yggdrasil Name=Baccarat VIP cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>5 384 ID=26042 Provider=BoomingGames Name=BoomingCircus cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>6 439 ID=25548 Provider=Leander Name=CandySpins cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>7 486 ID=25876 Provider=BoomingGames Name=ChickenParty cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>8 523 ID=26294 Provider=BoomingGames Name=ColossalFruitSmash cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>9 536 ID=26401 Provider=Fugaso Name=CosaNostra cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>10 537 ID=29318 Provider=Leander Name=Cosmic Fusion cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>11 547 ID=26397 Provider=Fugaso Name=CrazyBot cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>12 597 ID=26332 Provider=Fugaso Name=DeepBlueSea cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>13 650 ID=25428 Provider=Fugaso Name=DonSlottione cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>14 654 ID=26405 Provider=Fugaso Name=DoubleCash cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>15 759 ID=25370 Provider=GameArt Name=ExplosiveReels cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>16 785 ID=26508 Provider=Fugaso Name=FearTheZombies cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>17 856 ID=26379 Provider=Fugaso Name=FromChinawithLove cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>18 896 ID=26407 Provider=Fugaso Name=FruitsofNeon cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>19 926 ID=29549 Provider=ISoftBet Name=Gem Roulette cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>20 936 ID=26492 Provider=Fugaso Name=GemstoneofAztec cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>21 952 ID=75277 Provider=Yggdrasil Name=Glory of Heroes cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>22 957 ID=26357 Provider=Fugaso Name=Goblin'sLand cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>23 1017 ID=29192 Provider=Leander Name=Golden Wild cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>24 1021 ID=26394 Provider=Fugaso Name=GrandSumo cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>25 1086 ID=26353 Provider=Fugaso Name=HorrorCastle cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>26 1137 ID=29981 Provider=PushGaming Name=Humpty Dumpty cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>27 1152 ID=29983 Provider=PushGaming Name=Immortal Guild cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>28 1262 ID=29701 Provider=PariPlay Name=King of the Trident Deluxe cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>29 1274 ID=26388 Provider=Fugaso Name=Knockout cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>30 1296 ID=26490 Provider=Fugaso Name=Lapland cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>31 1306 ID=28655 Provider=PlaysonDirect Name=Legend of Cleopatra Megaways cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>32 1323 ID=76131 Provider=Yggdrasil Name=Let It Slide cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>33 1383 ID=26663 Provider=Evoplay Name=LuckyMahjongBox cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>34 1409 ID=26429 Provider=Fugaso Name=MagicDestiny cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>35 1456 ID=29273 Provider=GameArt Name=Mega Bunny HyperWays cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>36 1460 ID=26385 Provider=Fugaso Name=MegaPowerHeroes cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>37 1526 ID=26424 Provider=Fugaso Name=MrToxicus cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>38 1555 ID=75789 Provider=GameArt Name=Nefertiti HyperWays cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>39 1588 ID=28960 Provider=Evoplay Name=Oasis Poker Pro Series cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>40 1599 ID=26491 Provider=Fugaso Name=Olympia cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>41 1689 ID=26507 Provider=Fugaso Name=PlaguesofEgypt cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>42 1692 ID=26236 Provider=Booongo Name=PoisonedApple cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>43 1705 ID=26346 Provider=Fugaso Name=PowerofAsia cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>44 1846 ID=26410 Provider=Fugaso Name=RobbieJones cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>45 1866 ID=75969 Provider=Yggdrasil Name=Roulette Evolution cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>46 1867 ID=75968 Provider=Yggdrasil Name=Roulette Evolution VIP cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>47 1889 ID=75005 Provider=Yggdrasil Name=Sabres and Swords: Charge Gigablox cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>48 1895 ID=26418 Provider=Fugaso Name=Sahara'sDreams cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>49 1946 ID=26414 Provider=Fugaso Name=ShakeIt cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>50 1966 ID=26629 Provider=Evoplay Name=Sindbad cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>51 1989 ID=26391 Provider=Fugaso Name=SmokingDogs cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>52 2043 ID=75841 Provider=Yggdrasil Name=Steam Spin cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>53 2086 ID=26425 Provider=Fugaso Name=Sunset cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>54 2099 ID=26338 Provider=Fugaso Name=SuperHamster cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>55 2120 ID=29322 Provider=Leander Name=Swap The Flop cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>56 2157 ID=29169 Provider=Leander Name=Texas Switch cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>57 2181 ID=26399 Provider=Fugaso Name=TheGiant cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>58 2195 ID=27707 Provider=BoomingGames Name=TheKingPanda cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>59 2200 ID=26654 Provider=Evoplay Name=TheLegendofShaolin cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>60 2256 ID=75193 Provider=PariPlay Name=Tiki Magic cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>61 2273 ID=26628 Provider=Evoplay Name=TotemIsland cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>62 2283 ID=26364 Provider=Fugaso Name=TreasureofShaman cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>63 2304 ID=26404 Provider=Fugaso Name=TrumpIt cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>64 2328 ID=26600 Provider=Evoplay Name=USSRGrocery cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>65 2458 ID=29980 Provider=PushGaming Name=Wild Wheel cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>66 2505 ID=26421 Provider=Fugaso Name=Yakuza cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>67 2522 ID=28843 Provider=Yggdrasil Name=2 Gods Zeus VS Thor cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>68 2533 ID=26029 Provider=Edict Name=AfricanMask cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>69 2540 ID=25700 Provider=Yggdrasil Name=AllStarKnockout cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>70 2541 ID=25194 Provider=Yggdrasil Name=AllStarKnockoutUltraGamble cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>71 2556 ID=26969 Provider=Edict Name=AncientRichesHTML5 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>72 2563 ID=27731 Provider=PariPlay Name=ArcticMadness cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>73 2564 ID=25434 Provider=Yggdrasil Name=Arthur’sFortune cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>74 2583 ID=26968 Provider=Edict Name=BeautifulNatureHTML5 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>75 2592 ID=28341 Provider=ISoftBet Name=Bewitched cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>76 2605 ID=26967 Provider=Edict Name=BlackBeauty cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>77 2620 ID=25433 Provider=Yggdrasil Name=BloodMoonWilds cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>78 2628 ID=75667 Provider=Edict Name=Book of Fire cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>79 2632 ID=26966 Provider=Edict Name=BookofRomeoandJuliaHTML5 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>80 2635 ID=26965 Provider=Edict Name=BookoftheAgesHTML5 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>81 2636 ID=26964 Provider=Edict Name=BooksandBulls cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>82 2663 ID=28840 Provider=Yggdrasil Name=Carol of the Elves cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>83 2668 ID=28499 Provider=ISoftBet Name=Casino High Low cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>84 2670 ID=26409 Provider=Yggdrasil Name=CazinoCosmos cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>85 2674 ID=26980 Provider=Yggdrasil Name=ChampionsofRome cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>86 2678 ID=27237 Provider=Yggdrasil Name=Chibeasties2 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>87 2682 ID=28832 Provider=Yggdrasil Name=Christmas Tree cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>88 2684 ID=28338 Provider=ISoftBet Name=CloudTales cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>89 2700 ID=26955 Provider=Edict Name=CrystalBallHTML5 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>90 2706 ID=27236 Provider=Yggdrasil Name=Cyrusthevirus cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>91 2731 ID=28156 Provider=ISoftBet Name=Dolphin'sIsland cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>92 2738 ID=27234 Provider=Yggdrasil Name=Doubles cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>93 2743 ID=26953 Provider=Edict Name=DragonandKnights cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>94 2762 ID=26979 Provider=Yggdrasil Name=DwarfMine cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>95 2775 ID=28836 Provider=Yggdrasil Name=Elemental Princess cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>96 2796 ID=26951 Provider=Edict Name=ExplodiacHTML5 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>97 2806 ID=26948 Provider=Edict Name=FancyFruitsHTML5 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>98 2836 ID=29278 Provider=PariPlay Name=Force of the Gods cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>99 2839 ID=26943 Provider=Edict Name=FortBraveHTML5 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>100 2847 ID=28155 Provider=ISoftBet Name=FruitBoxes cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>101 2851 ID=26942 Provider=Edict Name=FruitManiaHTML5 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>102 2869 ID=25497 Provider=Microgaming Name=GameofThrones(15Lines) cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>103 2871 ID=26939 Provider=Edict Name=GatesofPersia cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>104 2873 ID=27230 Provider=Yggdrasil Name=GemRocks cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>105 2885 ID=26937 Provider=Edict Name=GlamorousTimesHTML5 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>106 2902 ID=27229 Provider=Yggdrasil Name=GoldenFishtank cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>107 2910 ID=25360 Provider=Microgaming Name=Goldilocks cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>108 2922 ID=26931 Provider=Edict Name=GuardiansOfTheMonastery cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>109 2925 ID=25556 Provider=Yggdrasil Name=Hades cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>110 2926 ID=27697 Provider=Microgaming Name=Halloween cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>111 2928 ID=27228 Provider=Yggdrasil Name=Hanzo'sDojo cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>112 2938 ID=27628 Provider=Microgaming Name=Highlander cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>113 2943 ID=27226 Provider=Yggdrasil Name=Holmes&amp;thestolenstones cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>114 2963 ID=25368 Provider=Microgaming Name=HotInk cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>115 2968 ID=28842 Provider=Yggdrasil Name=Hyperburst cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>116 2970 ID=25767 Provider=Yggdrasil Name=IceandFire cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>117 2995 ID=28167 Provider=ISoftBet Name=JesterTrio cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>118 3022 ID=26926 Provider=Edict Name=KingandQueen cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>119 3023 ID=26925 Provider=Edict Name=KingoftheJungle cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>120 3033 ID=26922 Provider=Edict Name=LaDolceVitaHTML5 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>121 3034 ID=29345 Provider=Yggdrasil Name=Labyrinth of Knossos Multijump cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>122 3042 ID=27220 Provider=Yggdrasil Name=LegendoftheWhiteSnakeLady cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>123 3052 ID=26443 Provider=Yggdrasil Name=Lilith'sInferno cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>124 3059 ID=26471 Provider=Microgaming Name=LoveIsland cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>125 3074 ID=25212 Provider=Yggdrasil Name=LuckyNeko cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>126 3077 ID=27896 Provider=Microgaming Name=LuckyTwins cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>127 3083 ID=26918 Provider=Edict Name=MaaaxDiamonds cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>128 3107 ID=26913 Provider=Edict Name=MagicStone cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>129 3119 ID=25141 Provider=Yggdrasil Name=Medusa:Fortune&amp;Glory cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>130 3120 ID=29200 Provider=Edict Name=Medusas Eyes cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>131 3121 ID=28372 Provider=ISoftBet Name=MegaBoy cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>132 3124 ID=27439 Provider=ISoftBet Name=MegaBoy cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>133 3134 ID=26911 Provider=Edict Name=MightyDragon cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>134 3159 ID=25664 Provider=Yggdrasil Name=MultiFly! cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>135 3179 ID=26642 Provider=Yggdrasil Name=NiagaraFalls cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>136 3181 ID=26906 Provider=Edict Name=NightOfTheWereWolf cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>137 3183 ID=26905 Provider=Edict Name=NightWolves cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>138 3184 ID=26469 Provider=Yggdrasil Name=NikolaTesla’sIncredibleMachine cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>139 3186 ID=28345 Provider=ISoftBet Name=NinjaChef cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>140 3192 ID=26902 Provider=Edict Name=OldFisherman cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>141 3206 ID=26901 Provider=Edict Name=Phantom'sMirror cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>142 3207 ID=26900 Provider=Edict Name=PharaosRiches cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>143 3211 ID=27630 Provider=Microgaming Name=PickaFortune cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>144 3228 ID=25646 Provider=Yggdrasil Name=PopRocks cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>145 3233 ID=27214 Provider=Yggdrasil Name=PowerPlant cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>146 3237 ID=75369 Provider=Edict Name=Princess of the Forest cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>147 3239 ID=27212 Provider=Yggdrasil Name=PumpkinSmash cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>148 3260 ID=27210 Provider=Yggdrasil Name=RainbowRyan cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>149 3261 ID=26894 Provider=Edict Name=RamsesBookHTML5 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>150 3264 ID=27209 Provider=Yggdrasil Name=Reefrun cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>151 3266 ID=29346 Provider=Yggdrasil Name=Reel Desire cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>152 3268 ID=27853 Provider=Microgaming Name=ReelGems cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>153 3277 ID=27207 Provider=Yggdrasil Name=Reptoids cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>154 3278 ID=27741 Provider=Microgaming Name=RetroReels cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>155 3280 ID=27745 Provider=Microgaming Name=RetroReelsExtremeHeat cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>156 3283 ID=27765 Provider=Microgaming Name=RhymingReelsHeartsandTarts cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>157 3289 ID=28054 Provider=Microgaming Name=RivieraRiches cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>158 3292 ID=28171 Provider=ISoftBet Name=RoboSmash cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>159 3295 ID=26892 Provider=Edict Name=RomanLegionHTML5 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>160 3296 ID=26891 Provider=Edict Name=RomanLegionXtreme cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>161 3297 ID=25219 Provider=Microgaming Name=RomanPower cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>162 3303 ID=26322 Provider=Yggdrasil Name=SaharaNights cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>163 3314 ID=27831 Provider=Microgaming Name=SassyBingo cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>164 3316 ID=26890 Provider=Edict Name=SavannaMoon cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>165 3356 ID=27203 Provider=Yggdrasil Name=SpinaColada cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>166 3361 ID=28377 Provider=ISoftBet Name=SpookyFamily cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>167 3370 ID=26886 Provider=Edict Name=StickyDiamondsHTML5 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>168 3374 ID=27270 Provider=Yggdrasil Name=SunnyShores cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>169 3377 ID=26884 Provider=Edict Name=SuperDuperCherry cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>170 3380 ID=27201 Provider=Yggdrasil Name=SuperHeroes cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>171 3390 ID=28835 Provider=Yggdrasil Name=Syncronite cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>172 3393 ID=26883 Provider=Edict Name=Take5HTML5 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>173 3403 ID=28335 Provider=ISoftBet Name=TheBestWitch cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>174 3418 ID=26881 Provider=Edict Name=TheLandofHeroes cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>175 3420 ID=26437 Provider=Yggdrasil Name=TheOneArmedBandit cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>176 3452 ID=25919 Provider=Edict Name=TribeoftheSun cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>177 3473 ID=27199 Provider=Yggdrasil Name=Valleyofthegods cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>178 3475 ID=25566 Provider=Yggdrasil Name=ValleyoftheGods2 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>179 3482 ID=28838 Provider=Yggdrasil Name=Victoria Wild cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>180 3485 ID=29342 Provider=Yggdrasil Name=Viking Runes cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>181 3490 ID=27198 Provider=Yggdrasil Name=VikingsGoBerzerk cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>182 3491 ID=27197 Provider=Yggdrasil Name=VikingsgotoHell cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>183 3493 ID=27194 Provider=Yggdrasil Name=Vikingsgowild cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>184 3520 ID=26876 Provider=Edict Name=WildRapaNui cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>185 3538 ID=27191 Provider=Yggdrasil Name=Winterberries cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>186 3541 ID=28356 Provider=ISoftBet Name=Wisps cod=0 description=null ResponseObject=24</t>
+    <t>2 170 ID=27172 Provider=Apollo Name=Atlantis cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>3 195 ID=25549 Provider=Leander Name=AztecaGold cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>4 201 ID=75976 Provider=Yggdrasil Name=Baccarat cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5 204 ID=75977 Provider=Yggdrasil Name=Baccarat VIP cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>6 384 ID=26042 Provider=BoomingGames Name=BoomingCircus cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>7 439 ID=25548 Provider=Leander Name=CandySpins cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>8 486 ID=25876 Provider=BoomingGames Name=ChickenParty cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>9 523 ID=26294 Provider=BoomingGames Name=ColossalFruitSmash cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>10 536 ID=26401 Provider=Fugaso Name=CosaNostra cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>11 537 ID=29318 Provider=Leander Name=Cosmic Fusion cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>12 547 ID=26397 Provider=Fugaso Name=CrazyBot cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>13 597 ID=26332 Provider=Fugaso Name=DeepBlueSea cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>14 650 ID=25428 Provider=Fugaso Name=DonSlottione cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>15 654 ID=26405 Provider=Fugaso Name=DoubleCash cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>16 759 ID=25370 Provider=GameArt Name=ExplosiveReels cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>17 785 ID=26508 Provider=Fugaso Name=FearTheZombies cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>18 856 ID=26379 Provider=Fugaso Name=FromChinawithLove cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>19 896 ID=26407 Provider=Fugaso Name=FruitsofNeon cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>20 926 ID=29549 Provider=ISoftBet Name=Gem Roulette cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>21 936 ID=26492 Provider=Fugaso Name=GemstoneofAztec cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>22 952 ID=75277 Provider=Yggdrasil Name=Glory of Heroes cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>23 957 ID=26357 Provider=Fugaso Name=Goblin'sLand cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>24 1017 ID=29192 Provider=Leander Name=Golden Wild cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>25 1021 ID=26394 Provider=Fugaso Name=GrandSumo cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>26 1086 ID=26353 Provider=Fugaso Name=HorrorCastle cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>27 1089 ID=75171 Provider=Apollo Name=Horus Eye cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>28 1137 ID=29981 Provider=PushGaming Name=Humpty Dumpty cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>29 1152 ID=29983 Provider=PushGaming Name=Immortal Guild cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>30 1262 ID=29701 Provider=PariPlay Name=King of the Trident Deluxe cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>31 1274 ID=26388 Provider=Fugaso Name=Knockout cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>32 1296 ID=26490 Provider=Fugaso Name=Lapland cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>33 1306 ID=28655 Provider=PlaysonDirect Name=Legend of Cleopatra Megaways cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>34 1323 ID=76131 Provider=Yggdrasil Name=Let It Slide cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>35 1383 ID=26663 Provider=Evoplay Name=LuckyMahjongBox cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>36 1409 ID=26429 Provider=Fugaso Name=MagicDestiny cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>37 1456 ID=29273 Provider=GameArt Name=Mega Bunny HyperWays cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>38 1460 ID=26385 Provider=Fugaso Name=MegaPowerHeroes cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>39 1526 ID=26424 Provider=Fugaso Name=MrToxicus cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>40 1555 ID=75789 Provider=GameArt Name=Nefertiti HyperWays cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>41 1588 ID=28960 Provider=Evoplay Name=Oasis Poker Pro Series cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>42 1599 ID=26491 Provider=Fugaso Name=Olympia cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>43 1689 ID=26507 Provider=Fugaso Name=PlaguesofEgypt cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>44 1692 ID=26236 Provider=Booongo Name=PoisonedApple cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>45 1705 ID=26346 Provider=Fugaso Name=PowerofAsia cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>46 1846 ID=26410 Provider=Fugaso Name=RobbieJones cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>47 1866 ID=75969 Provider=Yggdrasil Name=Roulette Evolution cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>48 1867 ID=75968 Provider=Yggdrasil Name=Roulette Evolution VIP cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>49 1889 ID=75005 Provider=Yggdrasil Name=Sabres and Swords: Charge Gigablox cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>50 1895 ID=26418 Provider=Fugaso Name=Sahara'sDreams cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>51 1946 ID=26414 Provider=Fugaso Name=ShakeIt cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>52 1966 ID=26629 Provider=Evoplay Name=Sindbad cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>53 1987 ID=25764 Provider=Apollo Name=SmilingJoker cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>54 1989 ID=26391 Provider=Fugaso Name=SmokingDogs cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>55 2043 ID=75841 Provider=Yggdrasil Name=Steam Spin cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>56 2086 ID=26425 Provider=Fugaso Name=Sunset cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>57 2099 ID=26338 Provider=Fugaso Name=SuperHamster cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>58 2120 ID=29322 Provider=Leander Name=Swap The Flop cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>59 2157 ID=29169 Provider=Leander Name=Texas Switch cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>60 2181 ID=26399 Provider=Fugaso Name=TheGiant cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>61 2195 ID=27707 Provider=BoomingGames Name=TheKingPanda cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>62 2200 ID=26654 Provider=Evoplay Name=TheLegendofShaolin cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>63 2256 ID=75193 Provider=PariPlay Name=Tiki Magic cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>64 2273 ID=26628 Provider=Evoplay Name=TotemIsland cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>65 2283 ID=26364 Provider=Fugaso Name=TreasureofShaman cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>66 2304 ID=26404 Provider=Fugaso Name=TrumpIt cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>67 2328 ID=26600 Provider=Evoplay Name=USSRGrocery cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>68 2458 ID=29980 Provider=PushGaming Name=Wild Wheel cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>69 2493 ID=27147 Provider=Apollo Name=WoodenFruits cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>70 2505 ID=26421 Provider=Fugaso Name=Yakuza cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>71 2522 ID=28843 Provider=Yggdrasil Name=2 Gods Zeus VS Thor cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>72 2533 ID=26029 Provider=Edict Name=AfricanMask cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>73 2540 ID=25700 Provider=Yggdrasil Name=AllStarKnockout cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>74 2541 ID=25194 Provider=Yggdrasil Name=AllStarKnockoutUltraGamble cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>75 2556 ID=26969 Provider=Edict Name=AncientRichesHTML5 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>76 2563 ID=27731 Provider=PariPlay Name=ArcticMadness cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>77 2564 ID=25434 Provider=Yggdrasil Name=Arthur’sFortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>78 2583 ID=26968 Provider=Edict Name=BeautifulNatureHTML5 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>79 2592 ID=28341 Provider=ISoftBet Name=Bewitched cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>80 2605 ID=26967 Provider=Edict Name=BlackBeauty cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>81 2620 ID=25433 Provider=Yggdrasil Name=BloodMoonWilds cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>82 2628 ID=75667 Provider=Edict Name=Book of Fire cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>83 2632 ID=26966 Provider=Edict Name=BookofRomeoandJuliaHTML5 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>84 2635 ID=26965 Provider=Edict Name=BookoftheAgesHTML5 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>85 2636 ID=26964 Provider=Edict Name=BooksandBulls cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>86 2663 ID=28840 Provider=Yggdrasil Name=Carol of the Elves cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>87 2668 ID=28499 Provider=ISoftBet Name=Casino High Low cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>88 2670 ID=26409 Provider=Yggdrasil Name=CazinoCosmos cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>89 2674 ID=26980 Provider=Yggdrasil Name=ChampionsofRome cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>90 2678 ID=27237 Provider=Yggdrasil Name=Chibeasties2 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>91 2682 ID=28832 Provider=Yggdrasil Name=Christmas Tree cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>92 2684 ID=28338 Provider=ISoftBet Name=CloudTales cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>93 2700 ID=26955 Provider=Edict Name=CrystalBallHTML5 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>94 2706 ID=27236 Provider=Yggdrasil Name=Cyrusthevirus cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>95 2731 ID=28156 Provider=ISoftBet Name=Dolphin'sIsland cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>96 2738 ID=27234 Provider=Yggdrasil Name=Doubles cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>97 2743 ID=26953 Provider=Edict Name=DragonandKnights cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>98 2761 ID=26979 Provider=Yggdrasil Name=DwarfMine cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>99 2774 ID=28836 Provider=Yggdrasil Name=Elemental Princess cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>100 2793 ID=26951 Provider=Edict Name=ExplodiacHTML5 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>101 2803 ID=26948 Provider=Edict Name=FancyFruitsHTML5 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>102 2832 ID=29278 Provider=PariPlay Name=Force of the Gods cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>103 2835 ID=26943 Provider=Edict Name=FortBraveHTML5 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>104 2843 ID=28155 Provider=ISoftBet Name=FruitBoxes cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>105 2847 ID=26942 Provider=Edict Name=FruitManiaHTML5 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>106 2863 ID=25497 Provider=Microgaming Name=GameofThrones(15Lines) cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>107 2865 ID=26939 Provider=Edict Name=GatesofPersia cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>108 2867 ID=27230 Provider=Yggdrasil Name=GemRocks cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>109 2879 ID=26937 Provider=Edict Name=GlamorousTimesHTML5 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>110 2896 ID=27229 Provider=Yggdrasil Name=GoldenFishtank cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>111 2915 ID=26931 Provider=Edict Name=GuardiansOfTheMonastery cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>112 2918 ID=25556 Provider=Yggdrasil Name=Hades cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>113 2919 ID=27697 Provider=Microgaming Name=Halloween cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>114 2921 ID=27228 Provider=Yggdrasil Name=Hanzo'sDojo cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>115 2931 ID=27628 Provider=Microgaming Name=Highlander cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>116 2936 ID=27226 Provider=Yggdrasil Name=Holmes&amp;thestolenstones cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>117 2960 ID=28842 Provider=Yggdrasil Name=Hyperburst cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>118 2962 ID=25767 Provider=Yggdrasil Name=IceandFire cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>119 2987 ID=28167 Provider=ISoftBet Name=JesterTrio cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>120 3014 ID=26926 Provider=Edict Name=KingandQueen cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>121 3015 ID=26925 Provider=Edict Name=KingoftheJungle cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>122 3025 ID=26922 Provider=Edict Name=LaDolceVitaHTML5 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>123 3026 ID=29345 Provider=Yggdrasil Name=Labyrinth of Knossos Multijump cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>124 3033 ID=27220 Provider=Yggdrasil Name=LegendoftheWhiteSnakeLady cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>125 3043 ID=26443 Provider=Yggdrasil Name=Lilith'sInferno cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>126 3050 ID=26471 Provider=Microgaming Name=LoveIsland cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>127 3065 ID=25212 Provider=Yggdrasil Name=LuckyNeko cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>128 3067 ID=27896 Provider=Microgaming Name=LuckyTwins cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>129 3073 ID=26918 Provider=Edict Name=MaaaxDiamonds cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>130 3097 ID=26913 Provider=Edict Name=MagicStone cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>131 3109 ID=25141 Provider=Yggdrasil Name=Medusa:Fortune&amp;Glory cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>132 3110 ID=29200 Provider=Edict Name=Medusas Eyes cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>133 3111 ID=28372 Provider=ISoftBet Name=MegaBoy cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>134 3114 ID=27439 Provider=ISoftBet Name=MegaBoy cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>135 3122 ID=26911 Provider=Edict Name=MightyDragon cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>136 3147 ID=25664 Provider=Yggdrasil Name=MultiFly! cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>137 3167 ID=26642 Provider=Yggdrasil Name=NiagaraFalls cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>138 3169 ID=26906 Provider=Edict Name=NightOfTheWereWolf cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>139 3171 ID=26905 Provider=Edict Name=NightWolves cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>140 3172 ID=26469 Provider=Yggdrasil Name=NikolaTesla’sIncredibleMachine cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>141 3174 ID=28345 Provider=ISoftBet Name=NinjaChef cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>142 3180 ID=26902 Provider=Edict Name=OldFisherman cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>143 3193 ID=26901 Provider=Edict Name=Phantom'sMirror cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>144 3194 ID=26900 Provider=Edict Name=PharaosRiches cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>145 3198 ID=27630 Provider=Microgaming Name=PickaFortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>146 3215 ID=25646 Provider=Yggdrasil Name=PopRocks cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>147 3219 ID=27214 Provider=Yggdrasil Name=PowerPlant cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>148 3223 ID=75369 Provider=Edict Name=Princess of the Forest cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>149 3225 ID=27212 Provider=Yggdrasil Name=PumpkinSmash cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>150 3246 ID=27210 Provider=Yggdrasil Name=RainbowRyan cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>151 3247 ID=26894 Provider=Edict Name=RamsesBookHTML5 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>152 3250 ID=27209 Provider=Yggdrasil Name=Reefrun cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>153 3252 ID=29346 Provider=Yggdrasil Name=Reel Desire cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>154 3254 ID=27853 Provider=Microgaming Name=ReelGems cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>155 3263 ID=27207 Provider=Yggdrasil Name=Reptoids cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>156 3264 ID=27741 Provider=Microgaming Name=RetroReels cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>157 3266 ID=27745 Provider=Microgaming Name=RetroReelsExtremeHeat cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>158 3269 ID=27765 Provider=Microgaming Name=RhymingReelsHeartsandTarts cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>159 3275 ID=28054 Provider=Microgaming Name=RivieraRiches cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>160 3278 ID=28171 Provider=ISoftBet Name=RoboSmash cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>161 3281 ID=26892 Provider=Edict Name=RomanLegionHTML5 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>162 3282 ID=26891 Provider=Edict Name=RomanLegionXtreme cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>163 3288 ID=26322 Provider=Yggdrasil Name=SaharaNights cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>164 3298 ID=27831 Provider=Microgaming Name=SassyBingo cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>165 3300 ID=26890 Provider=Edict Name=SavannaMoon cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>166 3340 ID=27203 Provider=Yggdrasil Name=SpinaColada cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>167 3345 ID=28377 Provider=ISoftBet Name=SpookyFamily cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>168 3354 ID=26886 Provider=Edict Name=StickyDiamondsHTML5 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>169 3358 ID=27270 Provider=Yggdrasil Name=SunnyShores cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>170 3360 ID=26884 Provider=Edict Name=SuperDuperCherry cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>171 3363 ID=27201 Provider=Yggdrasil Name=SuperHeroes cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>172 3372 ID=28835 Provider=Yggdrasil Name=Syncronite cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>173 3375 ID=26883 Provider=Edict Name=Take5HTML5 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>174 3385 ID=28335 Provider=ISoftBet Name=TheBestWitch cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>175 3400 ID=26881 Provider=Edict Name=TheLandofHeroes cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>176 3402 ID=26437 Provider=Yggdrasil Name=TheOneArmedBandit cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>177 3434 ID=25919 Provider=Edict Name=TribeoftheSun cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>178 3455 ID=27199 Provider=Yggdrasil Name=Valleyofthegods cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>179 3457 ID=25566 Provider=Yggdrasil Name=ValleyoftheGods2 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>180 3464 ID=28838 Provider=Yggdrasil Name=Victoria Wild cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>181 3467 ID=29342 Provider=Yggdrasil Name=Viking Runes cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>182 3472 ID=27198 Provider=Yggdrasil Name=VikingsGoBerzerk cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>183 3473 ID=27197 Provider=Yggdrasil Name=VikingsgotoHell cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>184 3475 ID=27194 Provider=Yggdrasil Name=Vikingsgowild cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>185 3502 ID=26876 Provider=Edict Name=WildRapaNui cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>186 3519 ID=27191 Provider=Yggdrasil Name=Winterberries cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>187 3522 ID=28356 Provider=ISoftBet Name=Wisps cod=0 description=null ResponseObject=24</t>
   </si>
 </sst>
 </file>
@@ -614,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A186"/>
+  <dimension ref="A1:A187"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1553,6 +1556,11 @@
         <v>185</v>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
